--- a/SP6BILL.xlsx
+++ b/SP6BILL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -49,10 +49,10 @@
     <x:t>IsModified/Added</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_13.TestCase_1</x:t>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>New Average Daily Usage</x:t>
@@ -175,10 +175,10 @@
     <x:t>User should be able to validate that a New Average Daily Usage is created</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_62.TestCase_1</x:t>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>View Supply Point</x:t>
@@ -194,12 +194,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to view the Supply Point Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_9.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>New Reading</x:t>
@@ -385,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K97" totalsRowShown="0">
-  <x:autoFilter ref="A1:K97"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K87" totalsRowShown="0">
+  <x:autoFilter ref="A1:K87"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -692,14 +686,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K97"/>
+  <x:dimension ref="A1:K87"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.130625000000002" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="27.270625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="25.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="48.700625" style="0" customWidth="1"/>
@@ -1008,13 +1002,13 @@
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>14</x:v>
@@ -1024,10 +1018,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -1039,16 +1033,16 @@
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1060,16 +1054,16 @@
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1081,16 +1075,16 @@
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1102,16 +1096,16 @@
       <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1123,16 +1117,16 @@
       <x:c r="C19" s="0" t="s"/>
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1144,16 +1138,16 @@
       <x:c r="C20" s="0" t="s"/>
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1186,16 +1180,16 @@
       <x:c r="C22" s="0" t="s"/>
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
@@ -1207,16 +1201,16 @@
       <x:c r="C23" s="0" t="s"/>
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1228,16 +1222,16 @@
       <x:c r="C24" s="0" t="s"/>
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="F24" s="0" t="s">
+      <x:c r="H24" s="0" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>92</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1250,13 +1244,13 @@
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>95</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
@@ -1310,13 +1304,13 @@
     </x:row>
     <x:row r="28" spans="1:11">
       <x:c r="A28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>14</x:v>
@@ -1326,10 +1320,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1341,16 +1335,16 @@
       <x:c r="C29" s="0" t="s"/>
       <x:c r="D29" s="0" t="s"/>
       <x:c r="E29" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
@@ -1362,16 +1356,16 @@
       <x:c r="C30" s="0" t="s"/>
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
@@ -1383,16 +1377,16 @@
       <x:c r="C31" s="0" t="s"/>
       <x:c r="D31" s="0" t="s"/>
       <x:c r="E31" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1404,16 +1398,16 @@
       <x:c r="C32" s="0" t="s"/>
       <x:c r="D32" s="0" t="s"/>
       <x:c r="E32" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
@@ -1425,16 +1419,16 @@
       <x:c r="C33" s="0" t="s"/>
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
@@ -1446,16 +1440,16 @@
       <x:c r="C34" s="0" t="s"/>
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1488,16 +1482,16 @@
       <x:c r="C36" s="0" t="s"/>
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
@@ -1509,16 +1503,16 @@
       <x:c r="C37" s="0" t="s"/>
       <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
@@ -1530,16 +1524,16 @@
       <x:c r="C38" s="0" t="s"/>
       <x:c r="D38" s="0" t="s"/>
       <x:c r="E38" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="F38" s="0" t="s">
+      <x:c r="H38" s="0" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>92</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
@@ -1552,13 +1546,13 @@
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s"/>
       <x:c r="F39" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>95</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
@@ -1566,13 +1560,13 @@
     </x:row>
     <x:row r="40" spans="1:11">
       <x:c r="A40" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>14</x:v>
@@ -1582,10 +1576,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
@@ -1596,42 +1590,38 @@
       <x:c r="B41" s="0" t="s"/>
       <x:c r="C41" s="0" t="s"/>
       <x:c r="D41" s="0" t="s"/>
-      <x:c r="E41" s="0" t="s"/>
+      <x:c r="E41" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="F41" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
       <x:c r="K41" s="0" t="s"/>
     </x:row>
     <x:row r="42" spans="1:11">
-      <x:c r="A42" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C42" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E42" s="0" t="s"/>
+      <x:c r="A42" s="0" t="s"/>
+      <x:c r="B42" s="0" t="s"/>
+      <x:c r="C42" s="0" t="s"/>
+      <x:c r="D42" s="0" t="s"/>
+      <x:c r="E42" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
@@ -1643,16 +1633,16 @@
       <x:c r="C43" s="0" t="s"/>
       <x:c r="D43" s="0" t="s"/>
       <x:c r="E43" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
@@ -1664,16 +1654,16 @@
       <x:c r="C44" s="0" t="s"/>
       <x:c r="D44" s="0" t="s"/>
       <x:c r="E44" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s"/>
       <x:c r="J44" s="0" t="s"/>
@@ -1685,16 +1675,16 @@
       <x:c r="C45" s="0" t="s"/>
       <x:c r="D45" s="0" t="s"/>
       <x:c r="E45" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s"/>
       <x:c r="J45" s="0" t="s"/>
@@ -1706,16 +1696,16 @@
       <x:c r="C46" s="0" t="s"/>
       <x:c r="D46" s="0" t="s"/>
       <x:c r="E46" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s"/>
       <x:c r="J46" s="0" t="s"/>
@@ -1727,16 +1717,16 @@
       <x:c r="C47" s="0" t="s"/>
       <x:c r="D47" s="0" t="s"/>
       <x:c r="E47" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s"/>
       <x:c r="J47" s="0" t="s"/>
@@ -1748,16 +1738,16 @@
       <x:c r="C48" s="0" t="s"/>
       <x:c r="D48" s="0" t="s"/>
       <x:c r="E48" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s"/>
       <x:c r="J48" s="0" t="s"/>
@@ -1769,16 +1759,16 @@
       <x:c r="C49" s="0" t="s"/>
       <x:c r="D49" s="0" t="s"/>
       <x:c r="E49" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s"/>
       <x:c r="J49" s="0" t="s"/>
@@ -1790,16 +1780,16 @@
       <x:c r="C50" s="0" t="s"/>
       <x:c r="D50" s="0" t="s"/>
       <x:c r="E50" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H50" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s"/>
       <x:c r="J50" s="0" t="s"/>
@@ -1810,38 +1800,42 @@
       <x:c r="B51" s="0" t="s"/>
       <x:c r="C51" s="0" t="s"/>
       <x:c r="D51" s="0" t="s"/>
-      <x:c r="E51" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
+      <x:c r="E51" s="0" t="s"/>
       <x:c r="F51" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s"/>
       <x:c r="J51" s="0" t="s"/>
       <x:c r="K51" s="0" t="s"/>
     </x:row>
     <x:row r="52" spans="1:11">
-      <x:c r="A52" s="0" t="s"/>
-      <x:c r="B52" s="0" t="s"/>
-      <x:c r="C52" s="0" t="s"/>
-      <x:c r="D52" s="0" t="s"/>
-      <x:c r="E52" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
+      <x:c r="A52" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s"/>
       <x:c r="F52" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s"/>
       <x:c r="J52" s="0" t="s"/>
@@ -1852,42 +1846,38 @@
       <x:c r="B53" s="0" t="s"/>
       <x:c r="C53" s="0" t="s"/>
       <x:c r="D53" s="0" t="s"/>
-      <x:c r="E53" s="0" t="s"/>
+      <x:c r="E53" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s"/>
       <x:c r="J53" s="0" t="s"/>
       <x:c r="K53" s="0" t="s"/>
     </x:row>
     <x:row r="54" spans="1:11">
-      <x:c r="A54" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B54" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C54" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D54" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E54" s="0" t="s"/>
+      <x:c r="A54" s="0" t="s"/>
+      <x:c r="B54" s="0" t="s"/>
+      <x:c r="C54" s="0" t="s"/>
+      <x:c r="D54" s="0" t="s"/>
+      <x:c r="E54" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s"/>
       <x:c r="J54" s="0" t="s"/>
@@ -1898,42 +1888,38 @@
       <x:c r="B55" s="0" t="s"/>
       <x:c r="C55" s="0" t="s"/>
       <x:c r="D55" s="0" t="s"/>
-      <x:c r="E55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s"/>
       <x:c r="J55" s="0" t="s"/>
       <x:c r="K55" s="0" t="s"/>
     </x:row>
     <x:row r="56" spans="1:11">
-      <x:c r="A56" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B56" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C56" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D56" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E56" s="0" t="s"/>
+      <x:c r="A56" s="0" t="s"/>
+      <x:c r="B56" s="0" t="s"/>
+      <x:c r="C56" s="0" t="s"/>
+      <x:c r="D56" s="0" t="s"/>
+      <x:c r="E56" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s"/>
       <x:c r="J56" s="0" t="s"/>
@@ -1945,16 +1931,16 @@
       <x:c r="C57" s="0" t="s"/>
       <x:c r="D57" s="0" t="s"/>
       <x:c r="E57" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s"/>
       <x:c r="J57" s="0" t="s"/>
@@ -1966,16 +1952,16 @@
       <x:c r="C58" s="0" t="s"/>
       <x:c r="D58" s="0" t="s"/>
       <x:c r="E58" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s"/>
       <x:c r="J58" s="0" t="s"/>
@@ -1987,16 +1973,16 @@
       <x:c r="C59" s="0" t="s"/>
       <x:c r="D59" s="0" t="s"/>
       <x:c r="E59" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s"/>
       <x:c r="J59" s="0" t="s"/>
@@ -2008,16 +1994,16 @@
       <x:c r="C60" s="0" t="s"/>
       <x:c r="D60" s="0" t="s"/>
       <x:c r="E60" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s"/>
       <x:c r="J60" s="0" t="s"/>
@@ -2029,16 +2015,16 @@
       <x:c r="C61" s="0" t="s"/>
       <x:c r="D61" s="0" t="s"/>
       <x:c r="E61" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s"/>
       <x:c r="J61" s="0" t="s"/>
@@ -2050,16 +2036,16 @@
       <x:c r="C62" s="0" t="s"/>
       <x:c r="D62" s="0" t="s"/>
       <x:c r="E62" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H62" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s"/>
       <x:c r="J62" s="0" t="s"/>
@@ -2070,38 +2056,42 @@
       <x:c r="B63" s="0" t="s"/>
       <x:c r="C63" s="0" t="s"/>
       <x:c r="D63" s="0" t="s"/>
-      <x:c r="E63" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="E63" s="0" t="s"/>
       <x:c r="F63" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H63" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s"/>
       <x:c r="J63" s="0" t="s"/>
       <x:c r="K63" s="0" t="s"/>
     </x:row>
     <x:row r="64" spans="1:11">
-      <x:c r="A64" s="0" t="s"/>
-      <x:c r="B64" s="0" t="s"/>
-      <x:c r="C64" s="0" t="s"/>
-      <x:c r="D64" s="0" t="s"/>
-      <x:c r="E64" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
+      <x:c r="A64" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s"/>
       <x:c r="F64" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s"/>
       <x:c r="J64" s="0" t="s"/>
@@ -2113,16 +2103,16 @@
       <x:c r="C65" s="0" t="s"/>
       <x:c r="D65" s="0" t="s"/>
       <x:c r="E65" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H65" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s"/>
       <x:c r="J65" s="0" t="s"/>
@@ -2134,16 +2124,16 @@
       <x:c r="C66" s="0" t="s"/>
       <x:c r="D66" s="0" t="s"/>
       <x:c r="E66" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H66" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s"/>
       <x:c r="J66" s="0" t="s"/>
@@ -2154,42 +2144,38 @@
       <x:c r="B67" s="0" t="s"/>
       <x:c r="C67" s="0" t="s"/>
       <x:c r="D67" s="0" t="s"/>
-      <x:c r="E67" s="0" t="s"/>
+      <x:c r="E67" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s"/>
       <x:c r="J67" s="0" t="s"/>
       <x:c r="K67" s="0" t="s"/>
     </x:row>
     <x:row r="68" spans="1:11">
-      <x:c r="A68" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B68" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C68" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D68" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E68" s="0" t="s"/>
+      <x:c r="A68" s="0" t="s"/>
+      <x:c r="B68" s="0" t="s"/>
+      <x:c r="C68" s="0" t="s"/>
+      <x:c r="D68" s="0" t="s"/>
+      <x:c r="E68" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s"/>
       <x:c r="J68" s="0" t="s"/>
@@ -2200,42 +2186,38 @@
       <x:c r="B69" s="0" t="s"/>
       <x:c r="C69" s="0" t="s"/>
       <x:c r="D69" s="0" t="s"/>
-      <x:c r="E69" s="0" t="s"/>
+      <x:c r="E69" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s"/>
       <x:c r="J69" s="0" t="s"/>
       <x:c r="K69" s="0" t="s"/>
     </x:row>
     <x:row r="70" spans="1:11">
-      <x:c r="A70" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B70" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C70" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D70" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E70" s="0" t="s"/>
+      <x:c r="A70" s="0" t="s"/>
+      <x:c r="B70" s="0" t="s"/>
+      <x:c r="C70" s="0" t="s"/>
+      <x:c r="D70" s="0" t="s"/>
+      <x:c r="E70" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s"/>
       <x:c r="J70" s="0" t="s"/>
@@ -2247,16 +2229,16 @@
       <x:c r="C71" s="0" t="s"/>
       <x:c r="D71" s="0" t="s"/>
       <x:c r="E71" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s"/>
       <x:c r="J71" s="0" t="s"/>
@@ -2268,16 +2250,16 @@
       <x:c r="C72" s="0" t="s"/>
       <x:c r="D72" s="0" t="s"/>
       <x:c r="E72" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s"/>
       <x:c r="J72" s="0" t="s"/>
@@ -2289,16 +2271,16 @@
       <x:c r="C73" s="0" t="s"/>
       <x:c r="D73" s="0" t="s"/>
       <x:c r="E73" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H73" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s"/>
       <x:c r="J73" s="0" t="s"/>
@@ -2310,16 +2292,16 @@
       <x:c r="C74" s="0" t="s"/>
       <x:c r="D74" s="0" t="s"/>
       <x:c r="E74" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H74" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s"/>
       <x:c r="J74" s="0" t="s"/>
@@ -2330,38 +2312,42 @@
       <x:c r="B75" s="0" t="s"/>
       <x:c r="C75" s="0" t="s"/>
       <x:c r="D75" s="0" t="s"/>
-      <x:c r="E75" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
+      <x:c r="E75" s="0" t="s"/>
       <x:c r="F75" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H75" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s"/>
       <x:c r="J75" s="0" t="s"/>
       <x:c r="K75" s="0" t="s"/>
     </x:row>
     <x:row r="76" spans="1:11">
-      <x:c r="A76" s="0" t="s"/>
-      <x:c r="B76" s="0" t="s"/>
-      <x:c r="C76" s="0" t="s"/>
-      <x:c r="D76" s="0" t="s"/>
-      <x:c r="E76" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
+      <x:c r="A76" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s"/>
       <x:c r="F76" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s"/>
       <x:c r="J76" s="0" t="s"/>
@@ -2373,16 +2359,16 @@
       <x:c r="C77" s="0" t="s"/>
       <x:c r="D77" s="0" t="s"/>
       <x:c r="E77" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s"/>
       <x:c r="J77" s="0" t="s"/>
@@ -2394,16 +2380,16 @@
       <x:c r="C78" s="0" t="s"/>
       <x:c r="D78" s="0" t="s"/>
       <x:c r="E78" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H78" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s"/>
       <x:c r="J78" s="0" t="s"/>
@@ -2415,16 +2401,16 @@
       <x:c r="C79" s="0" t="s"/>
       <x:c r="D79" s="0" t="s"/>
       <x:c r="E79" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s"/>
       <x:c r="J79" s="0" t="s"/>
@@ -2436,16 +2422,16 @@
       <x:c r="C80" s="0" t="s"/>
       <x:c r="D80" s="0" t="s"/>
       <x:c r="E80" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s"/>
       <x:c r="J80" s="0" t="s"/>
@@ -2456,42 +2442,38 @@
       <x:c r="B81" s="0" t="s"/>
       <x:c r="C81" s="0" t="s"/>
       <x:c r="D81" s="0" t="s"/>
-      <x:c r="E81" s="0" t="s"/>
+      <x:c r="E81" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H81" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s"/>
       <x:c r="J81" s="0" t="s"/>
       <x:c r="K81" s="0" t="s"/>
     </x:row>
     <x:row r="82" spans="1:11">
-      <x:c r="A82" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B82" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C82" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D82" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E82" s="0" t="s"/>
+      <x:c r="A82" s="0" t="s"/>
+      <x:c r="B82" s="0" t="s"/>
+      <x:c r="C82" s="0" t="s"/>
+      <x:c r="D82" s="0" t="s"/>
+      <x:c r="E82" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H82" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s"/>
       <x:c r="J82" s="0" t="s"/>
@@ -2502,42 +2484,38 @@
       <x:c r="B83" s="0" t="s"/>
       <x:c r="C83" s="0" t="s"/>
       <x:c r="D83" s="0" t="s"/>
-      <x:c r="E83" s="0" t="s"/>
+      <x:c r="E83" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H83" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s"/>
       <x:c r="J83" s="0" t="s"/>
       <x:c r="K83" s="0" t="s"/>
     </x:row>
     <x:row r="84" spans="1:11">
-      <x:c r="A84" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B84" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C84" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D84" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E84" s="0" t="s"/>
+      <x:c r="A84" s="0" t="s"/>
+      <x:c r="B84" s="0" t="s"/>
+      <x:c r="C84" s="0" t="s"/>
+      <x:c r="D84" s="0" t="s"/>
+      <x:c r="E84" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H84" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s"/>
       <x:c r="J84" s="0" t="s"/>
@@ -2549,16 +2527,16 @@
       <x:c r="C85" s="0" t="s"/>
       <x:c r="D85" s="0" t="s"/>
       <x:c r="E85" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H85" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s"/>
       <x:c r="J85" s="0" t="s"/>
@@ -2570,16 +2548,16 @@
       <x:c r="C86" s="0" t="s"/>
       <x:c r="D86" s="0" t="s"/>
       <x:c r="E86" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s"/>
       <x:c r="J86" s="0" t="s"/>
@@ -2590,233 +2568,19 @@
       <x:c r="B87" s="0" t="s"/>
       <x:c r="C87" s="0" t="s"/>
       <x:c r="D87" s="0" t="s"/>
-      <x:c r="E87" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
+      <x:c r="E87" s="0" t="s"/>
       <x:c r="F87" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G87" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H87" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s"/>
       <x:c r="J87" s="0" t="s"/>
       <x:c r="K87" s="0" t="s"/>
-    </x:row>
-    <x:row r="88" spans="1:11">
-      <x:c r="A88" s="0" t="s"/>
-      <x:c r="B88" s="0" t="s"/>
-      <x:c r="C88" s="0" t="s"/>
-      <x:c r="D88" s="0" t="s"/>
-      <x:c r="E88" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F88" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G88" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H88" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="I88" s="0" t="s"/>
-      <x:c r="J88" s="0" t="s"/>
-      <x:c r="K88" s="0" t="s"/>
-    </x:row>
-    <x:row r="89" spans="1:11">
-      <x:c r="A89" s="0" t="s"/>
-      <x:c r="B89" s="0" t="s"/>
-      <x:c r="C89" s="0" t="s"/>
-      <x:c r="D89" s="0" t="s"/>
-      <x:c r="E89" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="F89" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G89" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H89" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I89" s="0" t="s"/>
-      <x:c r="J89" s="0" t="s"/>
-      <x:c r="K89" s="0" t="s"/>
-    </x:row>
-    <x:row r="90" spans="1:11">
-      <x:c r="A90" s="0" t="s"/>
-      <x:c r="B90" s="0" t="s"/>
-      <x:c r="C90" s="0" t="s"/>
-      <x:c r="D90" s="0" t="s"/>
-      <x:c r="E90" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F90" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G90" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H90" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I90" s="0" t="s"/>
-      <x:c r="J90" s="0" t="s"/>
-      <x:c r="K90" s="0" t="s"/>
-    </x:row>
-    <x:row r="91" spans="1:11">
-      <x:c r="A91" s="0" t="s"/>
-      <x:c r="B91" s="0" t="s"/>
-      <x:c r="C91" s="0" t="s"/>
-      <x:c r="D91" s="0" t="s"/>
-      <x:c r="E91" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F91" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G91" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H91" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I91" s="0" t="s"/>
-      <x:c r="J91" s="0" t="s"/>
-      <x:c r="K91" s="0" t="s"/>
-    </x:row>
-    <x:row r="92" spans="1:11">
-      <x:c r="A92" s="0" t="s"/>
-      <x:c r="B92" s="0" t="s"/>
-      <x:c r="C92" s="0" t="s"/>
-      <x:c r="D92" s="0" t="s"/>
-      <x:c r="E92" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="F92" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G92" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="H92" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="I92" s="0" t="s"/>
-      <x:c r="J92" s="0" t="s"/>
-      <x:c r="K92" s="0" t="s"/>
-    </x:row>
-    <x:row r="93" spans="1:11">
-      <x:c r="A93" s="0" t="s"/>
-      <x:c r="B93" s="0" t="s"/>
-      <x:c r="C93" s="0" t="s"/>
-      <x:c r="D93" s="0" t="s"/>
-      <x:c r="E93" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F93" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G93" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H93" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="I93" s="0" t="s"/>
-      <x:c r="J93" s="0" t="s"/>
-      <x:c r="K93" s="0" t="s"/>
-    </x:row>
-    <x:row r="94" spans="1:11">
-      <x:c r="A94" s="0" t="s"/>
-      <x:c r="B94" s="0" t="s"/>
-      <x:c r="C94" s="0" t="s"/>
-      <x:c r="D94" s="0" t="s"/>
-      <x:c r="E94" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F94" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="G94" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="H94" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="I94" s="0" t="s"/>
-      <x:c r="J94" s="0" t="s"/>
-      <x:c r="K94" s="0" t="s"/>
-    </x:row>
-    <x:row r="95" spans="1:11">
-      <x:c r="A95" s="0" t="s"/>
-      <x:c r="B95" s="0" t="s"/>
-      <x:c r="C95" s="0" t="s"/>
-      <x:c r="D95" s="0" t="s"/>
-      <x:c r="E95" s="0" t="s"/>
-      <x:c r="F95" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="G95" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="H95" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="I95" s="0" t="s"/>
-      <x:c r="J95" s="0" t="s"/>
-      <x:c r="K95" s="0" t="s"/>
-    </x:row>
-    <x:row r="96" spans="1:11">
-      <x:c r="A96" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B96" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C96" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D96" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E96" s="0" t="s"/>
-      <x:c r="F96" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G96" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H96" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I96" s="0" t="s"/>
-      <x:c r="J96" s="0" t="s"/>
-      <x:c r="K96" s="0" t="s"/>
-    </x:row>
-    <x:row r="97" spans="1:11">
-      <x:c r="A97" s="0" t="s"/>
-      <x:c r="B97" s="0" t="s"/>
-      <x:c r="C97" s="0" t="s"/>
-      <x:c r="D97" s="0" t="s"/>
-      <x:c r="E97" s="0" t="s"/>
-      <x:c r="F97" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G97" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H97" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I97" s="0" t="s"/>
-      <x:c r="J97" s="0" t="s"/>
-      <x:c r="K97" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/SP6BILL.xlsx
+++ b/SP6BILL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -173,27 +173,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate that a New Average Daily Usage is created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Supply Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Supply Point tab,  and select a Supply Point </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Supply Point Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Supply Point name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Supply Point Details</x:t>
   </x:si>
   <x:si>
     <x:t>New Reading</x:t>
@@ -379,8 +358,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K87" totalsRowShown="0">
-  <x:autoFilter ref="A1:K87"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K83" totalsRowShown="0">
+  <x:autoFilter ref="A1:K83"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -686,7 +665,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K87"/>
+  <x:dimension ref="A1:K83"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -956,13 +935,13 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>55</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
@@ -972,10 +951,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -986,42 +965,38 @@
       <x:c r="B13" s="0" t="s"/>
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>59</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
       <x:c r="K13" s="0" t="s"/>
     </x:row>
     <x:row r="14" spans="1:11">
-      <x:c r="A14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s"/>
-      <x:c r="F14" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
+      <x:c r="H14" s="0" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -1033,16 +1008,16 @@
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
+      <x:c r="H15" s="0" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>65</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1054,16 +1029,16 @@
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
+      <x:c r="H16" s="0" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1075,16 +1050,16 @@
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
+      <x:c r="H17" s="0" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>71</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1096,16 +1071,16 @@
       <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
+      <x:c r="H18" s="0" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>74</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1117,16 +1092,16 @@
       <x:c r="C19" s="0" t="s"/>
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1138,16 +1113,16 @@
       <x:c r="C20" s="0" t="s"/>
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1159,16 +1134,16 @@
       <x:c r="C21" s="0" t="s"/>
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1180,10 +1155,10 @@
       <x:c r="C22" s="0" t="s"/>
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>47</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>82</x:v>
@@ -1200,11 +1175,9 @@
       <x:c r="B23" s="0" t="s"/>
       <x:c r="C23" s="0" t="s"/>
       <x:c r="D23" s="0" t="s"/>
-      <x:c r="E23" s="0" t="s">
+      <x:c r="E23" s="0" t="s"/>
+      <x:c r="F23" s="0" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>50</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>85</x:v>
@@ -1217,21 +1190,27 @@
       <x:c r="K23" s="0" t="s"/>
     </x:row>
     <x:row r="24" spans="1:11">
-      <x:c r="A24" s="0" t="s"/>
-      <x:c r="B24" s="0" t="s"/>
-      <x:c r="C24" s="0" t="s"/>
-      <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
+      <x:c r="A24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1242,42 +1221,38 @@
       <x:c r="B25" s="0" t="s"/>
       <x:c r="C25" s="0" t="s"/>
       <x:c r="D25" s="0" t="s"/>
-      <x:c r="E25" s="0" t="s"/>
+      <x:c r="E25" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
       <x:c r="K25" s="0" t="s"/>
     </x:row>
     <x:row r="26" spans="1:11">
-      <x:c r="A26" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s"/>
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="0" t="s"/>
+      <x:c r="E26" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1288,42 +1263,38 @@
       <x:c r="B27" s="0" t="s"/>
       <x:c r="C27" s="0" t="s"/>
       <x:c r="D27" s="0" t="s"/>
-      <x:c r="E27" s="0" t="s"/>
+      <x:c r="E27" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
       <x:c r="K27" s="0" t="s"/>
     </x:row>
     <x:row r="28" spans="1:11">
-      <x:c r="A28" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s"/>
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
+      <x:c r="C28" s="0" t="s"/>
+      <x:c r="D28" s="0" t="s"/>
+      <x:c r="E28" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1335,16 +1306,16 @@
       <x:c r="C29" s="0" t="s"/>
       <x:c r="D29" s="0" t="s"/>
       <x:c r="E29" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
@@ -1356,16 +1327,16 @@
       <x:c r="C30" s="0" t="s"/>
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
@@ -1377,16 +1348,16 @@
       <x:c r="C31" s="0" t="s"/>
       <x:c r="D31" s="0" t="s"/>
       <x:c r="E31" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1398,16 +1369,16 @@
       <x:c r="C32" s="0" t="s"/>
       <x:c r="D32" s="0" t="s"/>
       <x:c r="E32" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
@@ -1419,16 +1390,16 @@
       <x:c r="C33" s="0" t="s"/>
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
@@ -1440,16 +1411,16 @@
       <x:c r="C34" s="0" t="s"/>
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1460,38 +1431,42 @@
       <x:c r="B35" s="0" t="s"/>
       <x:c r="C35" s="0" t="s"/>
       <x:c r="D35" s="0" t="s"/>
-      <x:c r="E35" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="E35" s="0" t="s"/>
       <x:c r="F35" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
       <x:c r="K35" s="0" t="s"/>
     </x:row>
     <x:row r="36" spans="1:11">
-      <x:c r="A36" s="0" t="s"/>
-      <x:c r="B36" s="0" t="s"/>
-      <x:c r="C36" s="0" t="s"/>
-      <x:c r="D36" s="0" t="s"/>
-      <x:c r="E36" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
+      <x:c r="A36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
@@ -1503,16 +1478,16 @@
       <x:c r="C37" s="0" t="s"/>
       <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
@@ -1524,16 +1499,16 @@
       <x:c r="C38" s="0" t="s"/>
       <x:c r="D38" s="0" t="s"/>
       <x:c r="E38" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
@@ -1544,42 +1519,38 @@
       <x:c r="B39" s="0" t="s"/>
       <x:c r="C39" s="0" t="s"/>
       <x:c r="D39" s="0" t="s"/>
-      <x:c r="E39" s="0" t="s"/>
+      <x:c r="E39" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
       <x:c r="K39" s="0" t="s"/>
     </x:row>
     <x:row r="40" spans="1:11">
-      <x:c r="A40" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C40" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E40" s="0" t="s"/>
+      <x:c r="A40" s="0" t="s"/>
+      <x:c r="B40" s="0" t="s"/>
+      <x:c r="C40" s="0" t="s"/>
+      <x:c r="D40" s="0" t="s"/>
+      <x:c r="E40" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
@@ -1591,16 +1562,16 @@
       <x:c r="C41" s="0" t="s"/>
       <x:c r="D41" s="0" t="s"/>
       <x:c r="E41" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
@@ -1612,16 +1583,16 @@
       <x:c r="C42" s="0" t="s"/>
       <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
@@ -1633,16 +1604,16 @@
       <x:c r="C43" s="0" t="s"/>
       <x:c r="D43" s="0" t="s"/>
       <x:c r="E43" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
@@ -1654,16 +1625,16 @@
       <x:c r="C44" s="0" t="s"/>
       <x:c r="D44" s="0" t="s"/>
       <x:c r="E44" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s"/>
       <x:c r="J44" s="0" t="s"/>
@@ -1675,16 +1646,16 @@
       <x:c r="C45" s="0" t="s"/>
       <x:c r="D45" s="0" t="s"/>
       <x:c r="E45" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s"/>
       <x:c r="J45" s="0" t="s"/>
@@ -1696,16 +1667,16 @@
       <x:c r="C46" s="0" t="s"/>
       <x:c r="D46" s="0" t="s"/>
       <x:c r="E46" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s"/>
       <x:c r="J46" s="0" t="s"/>
@@ -1716,38 +1687,42 @@
       <x:c r="B47" s="0" t="s"/>
       <x:c r="C47" s="0" t="s"/>
       <x:c r="D47" s="0" t="s"/>
-      <x:c r="E47" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="E47" s="0" t="s"/>
       <x:c r="F47" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s"/>
       <x:c r="J47" s="0" t="s"/>
       <x:c r="K47" s="0" t="s"/>
     </x:row>
     <x:row r="48" spans="1:11">
-      <x:c r="A48" s="0" t="s"/>
-      <x:c r="B48" s="0" t="s"/>
-      <x:c r="C48" s="0" t="s"/>
-      <x:c r="D48" s="0" t="s"/>
-      <x:c r="E48" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
+      <x:c r="A48" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s"/>
       <x:c r="F48" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s"/>
       <x:c r="J48" s="0" t="s"/>
@@ -1759,16 +1734,16 @@
       <x:c r="C49" s="0" t="s"/>
       <x:c r="D49" s="0" t="s"/>
       <x:c r="E49" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s"/>
       <x:c r="J49" s="0" t="s"/>
@@ -1780,16 +1755,16 @@
       <x:c r="C50" s="0" t="s"/>
       <x:c r="D50" s="0" t="s"/>
       <x:c r="E50" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H50" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s"/>
       <x:c r="J50" s="0" t="s"/>
@@ -1800,42 +1775,38 @@
       <x:c r="B51" s="0" t="s"/>
       <x:c r="C51" s="0" t="s"/>
       <x:c r="D51" s="0" t="s"/>
-      <x:c r="E51" s="0" t="s"/>
+      <x:c r="E51" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s"/>
       <x:c r="J51" s="0" t="s"/>
       <x:c r="K51" s="0" t="s"/>
     </x:row>
     <x:row r="52" spans="1:11">
-      <x:c r="A52" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C52" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E52" s="0" t="s"/>
+      <x:c r="A52" s="0" t="s"/>
+      <x:c r="B52" s="0" t="s"/>
+      <x:c r="C52" s="0" t="s"/>
+      <x:c r="D52" s="0" t="s"/>
+      <x:c r="E52" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s"/>
       <x:c r="J52" s="0" t="s"/>
@@ -1847,16 +1818,16 @@
       <x:c r="C53" s="0" t="s"/>
       <x:c r="D53" s="0" t="s"/>
       <x:c r="E53" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s"/>
       <x:c r="J53" s="0" t="s"/>
@@ -1868,16 +1839,16 @@
       <x:c r="C54" s="0" t="s"/>
       <x:c r="D54" s="0" t="s"/>
       <x:c r="E54" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s"/>
       <x:c r="J54" s="0" t="s"/>
@@ -1889,16 +1860,16 @@
       <x:c r="C55" s="0" t="s"/>
       <x:c r="D55" s="0" t="s"/>
       <x:c r="E55" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s"/>
       <x:c r="J55" s="0" t="s"/>
@@ -1910,16 +1881,16 @@
       <x:c r="C56" s="0" t="s"/>
       <x:c r="D56" s="0" t="s"/>
       <x:c r="E56" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s"/>
       <x:c r="J56" s="0" t="s"/>
@@ -1931,16 +1902,16 @@
       <x:c r="C57" s="0" t="s"/>
       <x:c r="D57" s="0" t="s"/>
       <x:c r="E57" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s"/>
       <x:c r="J57" s="0" t="s"/>
@@ -1952,16 +1923,16 @@
       <x:c r="C58" s="0" t="s"/>
       <x:c r="D58" s="0" t="s"/>
       <x:c r="E58" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s"/>
       <x:c r="J58" s="0" t="s"/>
@@ -1972,38 +1943,42 @@
       <x:c r="B59" s="0" t="s"/>
       <x:c r="C59" s="0" t="s"/>
       <x:c r="D59" s="0" t="s"/>
-      <x:c r="E59" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="E59" s="0" t="s"/>
       <x:c r="F59" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s"/>
       <x:c r="J59" s="0" t="s"/>
       <x:c r="K59" s="0" t="s"/>
     </x:row>
     <x:row r="60" spans="1:11">
-      <x:c r="A60" s="0" t="s"/>
-      <x:c r="B60" s="0" t="s"/>
-      <x:c r="C60" s="0" t="s"/>
-      <x:c r="D60" s="0" t="s"/>
-      <x:c r="E60" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
+      <x:c r="A60" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s"/>
       <x:c r="F60" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s"/>
       <x:c r="J60" s="0" t="s"/>
@@ -2015,16 +1990,16 @@
       <x:c r="C61" s="0" t="s"/>
       <x:c r="D61" s="0" t="s"/>
       <x:c r="E61" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s"/>
       <x:c r="J61" s="0" t="s"/>
@@ -2036,16 +2011,16 @@
       <x:c r="C62" s="0" t="s"/>
       <x:c r="D62" s="0" t="s"/>
       <x:c r="E62" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H62" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s"/>
       <x:c r="J62" s="0" t="s"/>
@@ -2056,42 +2031,38 @@
       <x:c r="B63" s="0" t="s"/>
       <x:c r="C63" s="0" t="s"/>
       <x:c r="D63" s="0" t="s"/>
-      <x:c r="E63" s="0" t="s"/>
+      <x:c r="E63" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H63" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s"/>
       <x:c r="J63" s="0" t="s"/>
       <x:c r="K63" s="0" t="s"/>
     </x:row>
     <x:row r="64" spans="1:11">
-      <x:c r="A64" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B64" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C64" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D64" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E64" s="0" t="s"/>
+      <x:c r="A64" s="0" t="s"/>
+      <x:c r="B64" s="0" t="s"/>
+      <x:c r="C64" s="0" t="s"/>
+      <x:c r="D64" s="0" t="s"/>
+      <x:c r="E64" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s"/>
       <x:c r="J64" s="0" t="s"/>
@@ -2103,16 +2074,16 @@
       <x:c r="C65" s="0" t="s"/>
       <x:c r="D65" s="0" t="s"/>
       <x:c r="E65" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H65" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s"/>
       <x:c r="J65" s="0" t="s"/>
@@ -2124,16 +2095,16 @@
       <x:c r="C66" s="0" t="s"/>
       <x:c r="D66" s="0" t="s"/>
       <x:c r="E66" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H66" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s"/>
       <x:c r="J66" s="0" t="s"/>
@@ -2145,16 +2116,16 @@
       <x:c r="C67" s="0" t="s"/>
       <x:c r="D67" s="0" t="s"/>
       <x:c r="E67" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s"/>
       <x:c r="J67" s="0" t="s"/>
@@ -2166,16 +2137,16 @@
       <x:c r="C68" s="0" t="s"/>
       <x:c r="D68" s="0" t="s"/>
       <x:c r="E68" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s"/>
       <x:c r="J68" s="0" t="s"/>
@@ -2187,16 +2158,16 @@
       <x:c r="C69" s="0" t="s"/>
       <x:c r="D69" s="0" t="s"/>
       <x:c r="E69" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s"/>
       <x:c r="J69" s="0" t="s"/>
@@ -2208,16 +2179,16 @@
       <x:c r="C70" s="0" t="s"/>
       <x:c r="D70" s="0" t="s"/>
       <x:c r="E70" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s"/>
       <x:c r="J70" s="0" t="s"/>
@@ -2228,38 +2199,42 @@
       <x:c r="B71" s="0" t="s"/>
       <x:c r="C71" s="0" t="s"/>
       <x:c r="D71" s="0" t="s"/>
-      <x:c r="E71" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="E71" s="0" t="s"/>
       <x:c r="F71" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s"/>
       <x:c r="J71" s="0" t="s"/>
       <x:c r="K71" s="0" t="s"/>
     </x:row>
     <x:row r="72" spans="1:11">
-      <x:c r="A72" s="0" t="s"/>
-      <x:c r="B72" s="0" t="s"/>
-      <x:c r="C72" s="0" t="s"/>
-      <x:c r="D72" s="0" t="s"/>
-      <x:c r="E72" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
+      <x:c r="A72" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s"/>
       <x:c r="F72" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s"/>
       <x:c r="J72" s="0" t="s"/>
@@ -2271,16 +2246,16 @@
       <x:c r="C73" s="0" t="s"/>
       <x:c r="D73" s="0" t="s"/>
       <x:c r="E73" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H73" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s"/>
       <x:c r="J73" s="0" t="s"/>
@@ -2292,16 +2267,16 @@
       <x:c r="C74" s="0" t="s"/>
       <x:c r="D74" s="0" t="s"/>
       <x:c r="E74" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H74" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s"/>
       <x:c r="J74" s="0" t="s"/>
@@ -2312,42 +2287,38 @@
       <x:c r="B75" s="0" t="s"/>
       <x:c r="C75" s="0" t="s"/>
       <x:c r="D75" s="0" t="s"/>
-      <x:c r="E75" s="0" t="s"/>
+      <x:c r="E75" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H75" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s"/>
       <x:c r="J75" s="0" t="s"/>
       <x:c r="K75" s="0" t="s"/>
     </x:row>
     <x:row r="76" spans="1:11">
-      <x:c r="A76" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B76" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C76" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D76" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E76" s="0" t="s"/>
+      <x:c r="A76" s="0" t="s"/>
+      <x:c r="B76" s="0" t="s"/>
+      <x:c r="C76" s="0" t="s"/>
+      <x:c r="D76" s="0" t="s"/>
+      <x:c r="E76" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s"/>
       <x:c r="J76" s="0" t="s"/>
@@ -2359,16 +2330,16 @@
       <x:c r="C77" s="0" t="s"/>
       <x:c r="D77" s="0" t="s"/>
       <x:c r="E77" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s"/>
       <x:c r="J77" s="0" t="s"/>
@@ -2380,16 +2351,16 @@
       <x:c r="C78" s="0" t="s"/>
       <x:c r="D78" s="0" t="s"/>
       <x:c r="E78" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H78" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s"/>
       <x:c r="J78" s="0" t="s"/>
@@ -2401,16 +2372,16 @@
       <x:c r="C79" s="0" t="s"/>
       <x:c r="D79" s="0" t="s"/>
       <x:c r="E79" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s"/>
       <x:c r="J79" s="0" t="s"/>
@@ -2422,16 +2393,16 @@
       <x:c r="C80" s="0" t="s"/>
       <x:c r="D80" s="0" t="s"/>
       <x:c r="E80" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s"/>
       <x:c r="J80" s="0" t="s"/>
@@ -2443,16 +2414,16 @@
       <x:c r="C81" s="0" t="s"/>
       <x:c r="D81" s="0" t="s"/>
       <x:c r="E81" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H81" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s"/>
       <x:c r="J81" s="0" t="s"/>
@@ -2464,16 +2435,16 @@
       <x:c r="C82" s="0" t="s"/>
       <x:c r="D82" s="0" t="s"/>
       <x:c r="E82" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H82" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s"/>
       <x:c r="J82" s="0" t="s"/>
@@ -2484,103 +2455,19 @@
       <x:c r="B83" s="0" t="s"/>
       <x:c r="C83" s="0" t="s"/>
       <x:c r="D83" s="0" t="s"/>
-      <x:c r="E83" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="E83" s="0" t="s"/>
       <x:c r="F83" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H83" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s"/>
       <x:c r="J83" s="0" t="s"/>
       <x:c r="K83" s="0" t="s"/>
-    </x:row>
-    <x:row r="84" spans="1:11">
-      <x:c r="A84" s="0" t="s"/>
-      <x:c r="B84" s="0" t="s"/>
-      <x:c r="C84" s="0" t="s"/>
-      <x:c r="D84" s="0" t="s"/>
-      <x:c r="E84" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="F84" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G84" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="H84" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="I84" s="0" t="s"/>
-      <x:c r="J84" s="0" t="s"/>
-      <x:c r="K84" s="0" t="s"/>
-    </x:row>
-    <x:row r="85" spans="1:11">
-      <x:c r="A85" s="0" t="s"/>
-      <x:c r="B85" s="0" t="s"/>
-      <x:c r="C85" s="0" t="s"/>
-      <x:c r="D85" s="0" t="s"/>
-      <x:c r="E85" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F85" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G85" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="H85" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="I85" s="0" t="s"/>
-      <x:c r="J85" s="0" t="s"/>
-      <x:c r="K85" s="0" t="s"/>
-    </x:row>
-    <x:row r="86" spans="1:11">
-      <x:c r="A86" s="0" t="s"/>
-      <x:c r="B86" s="0" t="s"/>
-      <x:c r="C86" s="0" t="s"/>
-      <x:c r="D86" s="0" t="s"/>
-      <x:c r="E86" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="F86" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="G86" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="H86" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="I86" s="0" t="s"/>
-      <x:c r="J86" s="0" t="s"/>
-      <x:c r="K86" s="0" t="s"/>
-    </x:row>
-    <x:row r="87" spans="1:11">
-      <x:c r="A87" s="0" t="s"/>
-      <x:c r="B87" s="0" t="s"/>
-      <x:c r="C87" s="0" t="s"/>
-      <x:c r="D87" s="0" t="s"/>
-      <x:c r="E87" s="0" t="s"/>
-      <x:c r="F87" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="G87" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H87" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="I87" s="0" t="s"/>
-      <x:c r="J87" s="0" t="s"/>
-      <x:c r="K87" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/SP6BILL.xlsx
+++ b/SP6BILL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590449B-E309-41BC-8F29-DA0F14B5AC0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E749E7-4D32-4D02-A570-52ECAA21CA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="89">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -663,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P89" sqref="P89"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1069,7 @@
         <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1243,7 +1246,7 @@
         <v>55</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1420,7 +1423,7 @@
         <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1597,7 +1600,7 @@
         <v>55</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1774,7 +1777,7 @@
         <v>55</v>
       </c>
       <c r="I72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">

--- a/SP6BILL.xlsx
+++ b/SP6BILL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E749E7-4D32-4D02-A570-52ECAA21CA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E31CE2-DC80-4514-8422-07778596E9F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="90">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:I72"/>
+      <selection activeCell="J24" sqref="J24:J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>68</v>
       </c>
@@ -965,7 +968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>71</v>
       </c>
@@ -979,7 +982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>26</v>
       </c>
@@ -993,7 +996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>74</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>77</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>80</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>84</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1071,8 +1074,11 @@
       <c r="I24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>56</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>59</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>62</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>65</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>68</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>71</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>74</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>77</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>80</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>84</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1254,11 @@
       <c r="I36" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>56</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>59</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>62</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>65</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>68</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>71</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>26</v>
       </c>
@@ -1347,7 +1356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>74</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>77</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>80</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>84</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1425,8 +1434,11 @@
       <c r="I48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>56</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>59</v>
       </c>
@@ -1454,7 +1466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>62</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>65</v>
       </c>
@@ -1482,7 +1494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>68</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>71</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>26</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>74</v>
       </c>
@@ -1538,7 +1550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>77</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>80</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>84</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1602,8 +1614,11 @@
       <c r="I60" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>56</v>
       </c>
@@ -1617,7 +1632,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>59</v>
       </c>
@@ -1631,7 +1646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>62</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>65</v>
       </c>
@@ -1659,7 +1674,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>68</v>
       </c>
@@ -1673,7 +1688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>71</v>
       </c>
@@ -1687,7 +1702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>26</v>
       </c>
@@ -1701,7 +1716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>74</v>
       </c>
@@ -1715,7 +1730,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>77</v>
       </c>
@@ -1729,7 +1744,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>80</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
         <v>84</v>
       </c>
@@ -1754,7 +1769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -1779,8 +1794,11 @@
       <c r="I72" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>56</v>
       </c>
@@ -1794,7 +1812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>59</v>
       </c>
@@ -1808,7 +1826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>62</v>
       </c>
@@ -1822,7 +1840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>65</v>
       </c>
@@ -1836,7 +1854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>68</v>
       </c>
@@ -1850,7 +1868,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>71</v>
       </c>
@@ -1864,7 +1882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>26</v>
       </c>
@@ -1878,7 +1896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>74</v>
       </c>
